--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rspo3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Fzd8</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H2">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="N2">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="O2">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P2">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q2">
-        <v>5.191782615110911</v>
+        <v>0.134700796464</v>
       </c>
       <c r="R2">
-        <v>5.191782615110911</v>
+        <v>0.5388031858560001</v>
       </c>
       <c r="S2">
-        <v>0.2790649919610129</v>
+        <v>0.00519059731887679</v>
       </c>
       <c r="T2">
-        <v>0.2790649919610129</v>
+        <v>0.002883823177302769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H3">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N3">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P3">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q3">
-        <v>3.94763973583697</v>
+        <v>0.1071458567506667</v>
       </c>
       <c r="R3">
-        <v>3.94763973583697</v>
+        <v>0.642875140504</v>
       </c>
       <c r="S3">
-        <v>0.212190712288285</v>
+        <v>0.004128787738292278</v>
       </c>
       <c r="T3">
-        <v>0.212190712288285</v>
+        <v>0.003440844967076142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.05633158589939</v>
+        <v>0.052433</v>
       </c>
       <c r="H4">
-        <v>2.05633158589939</v>
+        <v>0.104866</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02014015227998088</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01351751646668263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="N4">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="O4">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P4">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q4">
-        <v>4.036781327598718</v>
+        <v>0.00063234198</v>
       </c>
       <c r="R4">
-        <v>4.036781327598718</v>
+        <v>0.00379405188</v>
       </c>
       <c r="S4">
-        <v>0.2169821874775544</v>
+        <v>2.436683874306896E-05</v>
       </c>
       <c r="T4">
-        <v>0.2169821874775544</v>
+        <v>2.030681153091274E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,929 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.052433</v>
+      </c>
+      <c r="H5">
+        <v>0.104866</v>
+      </c>
+      <c r="I5">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J5">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.110557</v>
+      </c>
+      <c r="O5">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P5">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q5">
+        <v>0.001932278393666667</v>
+      </c>
+      <c r="R5">
+        <v>0.011593670362</v>
+      </c>
+      <c r="S5">
+        <v>7.445894391701146E-05</v>
+      </c>
+      <c r="T5">
+        <v>6.205251969107573E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.052433</v>
+      </c>
+      <c r="H6">
+        <v>0.104866</v>
+      </c>
+      <c r="I6">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J6">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.055205</v>
+      </c>
+      <c r="N6">
+        <v>6.165615</v>
+      </c>
+      <c r="O6">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P6">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q6">
+        <v>0.107760563765</v>
+      </c>
+      <c r="R6">
+        <v>0.64656338259</v>
+      </c>
+      <c r="S6">
+        <v>0.004152475026446852</v>
+      </c>
+      <c r="T6">
+        <v>0.003460585455422016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.052433</v>
+      </c>
+      <c r="H7">
+        <v>0.104866</v>
+      </c>
+      <c r="I7">
+        <v>0.02014015227998088</v>
+      </c>
+      <c r="J7">
+        <v>0.01351751646668263</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.2514585</v>
+      </c>
+      <c r="N7">
+        <v>6.502917</v>
+      </c>
+      <c r="O7">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P7">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q7">
+        <v>0.1704837235305</v>
+      </c>
+      <c r="R7">
+        <v>0.681934894122</v>
+      </c>
+      <c r="S7">
+        <v>0.006569466413704882</v>
+      </c>
+      <c r="T7">
+        <v>0.003649903535659715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.598354</v>
+      </c>
+      <c r="I8">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J8">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.569008</v>
+      </c>
+      <c r="N8">
+        <v>5.138016</v>
+      </c>
+      <c r="O8">
+        <v>0.2577238367773512</v>
+      </c>
+      <c r="P8">
+        <v>0.2133397199412101</v>
+      </c>
+      <c r="Q8">
+        <v>6.506744070944</v>
+      </c>
+      <c r="R8">
+        <v>39.04046442566401</v>
+      </c>
+      <c r="S8">
+        <v>0.250732655009102</v>
+      </c>
+      <c r="T8">
+        <v>0.2089553275089276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.598354</v>
+      </c>
+      <c r="I9">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J9">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.130444</v>
+      </c>
+      <c r="O9">
+        <v>0.2050028063787906</v>
+      </c>
+      <c r="P9">
+        <v>0.2545471259870097</v>
+      </c>
+      <c r="Q9">
+        <v>5.175698187686222</v>
+      </c>
+      <c r="R9">
+        <v>46.581283689176</v>
+      </c>
+      <c r="S9">
+        <v>0.1994417690284368</v>
+      </c>
+      <c r="T9">
+        <v>0.2493158709110948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.598354</v>
+      </c>
+      <c r="I10">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J10">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01206</v>
+      </c>
+      <c r="N10">
+        <v>0.03618</v>
+      </c>
+      <c r="O10">
+        <v>0.001209863679496076</v>
+      </c>
+      <c r="P10">
+        <v>0.001502259056311421</v>
+      </c>
+      <c r="Q10">
+        <v>0.03054538308</v>
+      </c>
+      <c r="R10">
+        <v>0.27490844772</v>
+      </c>
+      <c r="S10">
+        <v>0.001177044142879185</v>
+      </c>
+      <c r="T10">
+        <v>0.001471385793518938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H11">
+        <v>7.598354</v>
+      </c>
+      <c r="I11">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J11">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.110557</v>
+      </c>
+      <c r="O11">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P11">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q11">
+        <v>0.09333902479755556</v>
+      </c>
+      <c r="R11">
+        <v>0.8400512231780001</v>
+      </c>
+      <c r="S11">
+        <v>0.003596751500947874</v>
+      </c>
+      <c r="T11">
+        <v>0.004496185715148514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H12">
+        <v>7.598354</v>
+      </c>
+      <c r="I12">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J12">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.055205</v>
+      </c>
+      <c r="N12">
+        <v>6.165615</v>
+      </c>
+      <c r="O12">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P12">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q12">
+        <v>5.205391710856667</v>
+      </c>
+      <c r="R12">
+        <v>46.84852539771</v>
+      </c>
+      <c r="S12">
+        <v>0.200585987368658</v>
+      </c>
+      <c r="T12">
+        <v>0.2507462222030754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.532784666666667</v>
+      </c>
+      <c r="H13">
+        <v>7.598354</v>
+      </c>
+      <c r="I13">
+        <v>0.97287335988914</v>
+      </c>
+      <c r="J13">
+        <v>0.9794487757202892</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.2514585</v>
+      </c>
+      <c r="N13">
+        <v>6.502917</v>
+      </c>
+      <c r="O13">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P13">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q13">
+        <v>8.235244233103</v>
+      </c>
+      <c r="R13">
+        <v>49.41146539861801</v>
+      </c>
+      <c r="S13">
+        <v>0.3173391528391162</v>
+      </c>
+      <c r="T13">
+        <v>0.2644637835885238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.054566</v>
+      </c>
+      <c r="I14">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J14">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.569008</v>
+      </c>
+      <c r="N14">
+        <v>5.138016</v>
+      </c>
+      <c r="O14">
+        <v>0.2577238367773512</v>
+      </c>
+      <c r="P14">
+        <v>0.2133397199412101</v>
+      </c>
+      <c r="Q14">
+        <v>0.04672683017600001</v>
+      </c>
+      <c r="R14">
+        <v>0.280360981056</v>
+      </c>
+      <c r="S14">
+        <v>0.001800584449372412</v>
+      </c>
+      <c r="T14">
+        <v>0.001500569254979716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.054566</v>
+      </c>
+      <c r="I15">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J15">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.130444</v>
+      </c>
+      <c r="O15">
+        <v>0.2050028063787906</v>
+      </c>
+      <c r="P15">
+        <v>0.2545471259870097</v>
+      </c>
+      <c r="Q15">
+        <v>0.03716820081155556</v>
+      </c>
+      <c r="R15">
+        <v>0.334513807304</v>
+      </c>
+      <c r="S15">
+        <v>0.001432249612061466</v>
+      </c>
+      <c r="T15">
+        <v>0.001790410108838678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.05633158589939</v>
-      </c>
-      <c r="H5">
-        <v>2.05633158589939</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.63965326438341</v>
-      </c>
-      <c r="N5">
-        <v>2.63965326438341</v>
-      </c>
-      <c r="O5">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="P5">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="Q5">
-        <v>5.428002383374039</v>
-      </c>
-      <c r="R5">
-        <v>5.428002383374039</v>
-      </c>
-      <c r="S5">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="T5">
-        <v>0.2917621082731477</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.054566</v>
+      </c>
+      <c r="I16">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J16">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.01206</v>
+      </c>
+      <c r="N16">
+        <v>0.03618</v>
+      </c>
+      <c r="O16">
+        <v>0.001209863679496076</v>
+      </c>
+      <c r="P16">
+        <v>0.001502259056311421</v>
+      </c>
+      <c r="Q16">
+        <v>0.00021935532</v>
+      </c>
+      <c r="R16">
+        <v>0.00197419788</v>
+      </c>
+      <c r="S16">
+        <v>8.452697873821834E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.056645126156986E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.054566</v>
+      </c>
+      <c r="I17">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J17">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.110557</v>
+      </c>
+      <c r="O17">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P17">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q17">
+        <v>0.000670294806888889</v>
+      </c>
+      <c r="R17">
+        <v>0.006032653262</v>
+      </c>
+      <c r="S17">
+        <v>2.582932335091544E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.228842322071252E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.054566</v>
+      </c>
+      <c r="I18">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J18">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.055205</v>
+      </c>
+      <c r="N18">
+        <v>6.165615</v>
+      </c>
+      <c r="O18">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P18">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q18">
+        <v>0.03738143867666667</v>
+      </c>
+      <c r="R18">
+        <v>0.33643294809</v>
+      </c>
+      <c r="S18">
+        <v>0.001440466578256053</v>
+      </c>
+      <c r="T18">
+        <v>0.001800681879356109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01818866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.054566</v>
+      </c>
+      <c r="I19">
+        <v>0.006986487830879007</v>
+      </c>
+      <c r="J19">
+        <v>0.007033707813028098</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.2514585</v>
+      </c>
+      <c r="N19">
+        <v>6.502917</v>
+      </c>
+      <c r="O19">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P19">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q19">
+        <v>0.05913969483700001</v>
+      </c>
+      <c r="R19">
+        <v>0.354838169022</v>
+      </c>
+      <c r="S19">
+        <v>0.002278905169964339</v>
+      </c>
+      <c r="T19">
+        <v>0.001899191695371312</v>
       </c>
     </row>
   </sheetData>
